--- a/data/Docs/리스트.xlsx
+++ b/data/Docs/리스트.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kdy\Projects\Project_SK_5\Final_Git\data\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35EE1B79-7C75-4843-9E6C-B1C5E3842D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228A3FE8-74AE-48D9-A68F-D2243AA97D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{21CA9D11-8681-4B49-9A5C-7614E071DF71}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" activeTab="1" xr2:uid="{21CA9D11-8681-4B49-9A5C-7614E071DF71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="종류" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>좋은제약_직원평가.xlsx</t>
   </si>
@@ -178,13 +179,43 @@
   </si>
   <si>
     <t>2024-05 스타포지정_제품설명서.pdf</t>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벡터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사내
+내부문서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비정형(S3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사내
+사용문서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,8 +231,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,8 +305,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6169EC-969A-4DC1-A99E-FE1CF4DB7EA3}">
   <dimension ref="B1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -728,7 +794,6 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="5"/>
       <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
@@ -908,4 +973,525 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C043F8-C824-4509-B772-F927BEFD62F5}">
+  <dimension ref="B1:F44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.4140625" customWidth="1"/>
+    <col min="3" max="3" width="40.4140625" customWidth="1"/>
+    <col min="4" max="6" width="7.75" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="8"/>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="9"/>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="9"/>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="9"/>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="9"/>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="9"/>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B21" s="9"/>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B22" s="9"/>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="9"/>
+      <c r="C23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B24" s="9"/>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="9"/>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="9"/>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="9"/>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B28" s="9"/>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="9"/>
+      <c r="C29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B31" s="8"/>
+      <c r="C31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B32" s="8"/>
+      <c r="C32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B33" s="8"/>
+      <c r="C33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B34" s="8"/>
+      <c r="C34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B35" s="8"/>
+      <c r="C35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B36" s="8"/>
+      <c r="C36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B37" s="8"/>
+      <c r="C37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B39" s="9"/>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B40" s="9"/>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B41" s="9"/>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B42" s="9"/>
+      <c r="C42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B43" s="9"/>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B44" s="9"/>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="B15:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B1:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>